--- a/data/trans_bre/P07B_R2_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R2_2023-Provincia-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-1.844798559475613</v>
+        <v>-1.844798559475669</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.01886965746208747</v>
+        <v>-0.01886965746208803</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.102703446091479</v>
+        <v>-3.903559656364751</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.04174080671016248</v>
+        <v>-0.03980038825966898</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3328053191658121</v>
+        <v>0.327377717491198</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.003387640757129836</v>
+        <v>0.003355684651387864</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.83049533051838</v>
+        <v>-3.927138562655477</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03960358553119988</v>
+        <v>-0.0405068562970247</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.928777684205772</v>
+        <v>1.937541842205178</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02077014670341018</v>
+        <v>0.0207964732491278</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-3.325289935276254</v>
+        <v>-3.325289935276277</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.03549235786204334</v>
+        <v>-0.03549235786204357</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.402293959740042</v>
+        <v>-6.586486309404936</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.06746758712384518</v>
+        <v>-0.0691930635657472</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6282466714951546</v>
+        <v>-0.1612862076190268</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.007189646650036775</v>
+        <v>-0.001841384753164794</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.28049908950135</v>
+        <v>-6.1778800627669</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06725175092727144</v>
+        <v>-0.06636645418976092</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.185280912647047</v>
+        <v>3.107999544772587</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03698173998995916</v>
+        <v>0.03556293050384034</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-4.003408654504592</v>
+        <v>-4.003408654504614</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.04102681826652958</v>
+        <v>-0.0410268182665298</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.391660364249494</v>
+        <v>-6.667699058052953</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.0652240667915984</v>
+        <v>-0.06816518803882596</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.22639502278257</v>
+        <v>-1.309221211463994</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.01325740425288281</v>
+        <v>-0.01420255383575011</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>-0.2552152772629879</v>
+        <v>-0.2552152772630212</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.002811868564636495</v>
+        <v>-0.002811868564636862</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.065157293459408</v>
+        <v>-3.973851206507651</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04369677435439403</v>
+        <v>-0.0429913986744008</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.324072785852465</v>
+        <v>3.663214940142768</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03717513466239145</v>
+        <v>0.04127723915983558</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-6.44977501353895</v>
+        <v>-6.449775013538939</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>-0.07013585592382329</v>
+        <v>-0.07013585592382317</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.801910558639113</v>
+        <v>-9.75793229755323</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.1056498718706389</v>
+        <v>-0.1046753427326079</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.304022721564947</v>
+        <v>-3.212519250523711</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>-0.03674465696591523</v>
+        <v>-0.03700867111457144</v>
       </c>
     </row>
     <row r="25">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-6.585042703917514</v>
+        <v>-6.452153034846283</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06845950357031476</v>
+        <v>-0.06831056859429277</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-1.864083885065888</v>
+        <v>-1.684178458416942</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01993818959209622</v>
+        <v>-0.01821929627905087</v>
       </c>
     </row>
     <row r="28">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-3.428283956869549</v>
+        <v>-3.428283956869582</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>-0.03655984231113796</v>
+        <v>-0.0365598423111383</v>
       </c>
     </row>
     <row r="29">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.580640164478255</v>
+        <v>-4.638346241410511</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.04840583447801953</v>
+        <v>-0.04928957125177483</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.217086967032503</v>
+        <v>-2.29189929871725</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>-0.02380403473532269</v>
+        <v>-0.02465599441948865</v>
       </c>
     </row>
     <row r="31">
